--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Efna4-Epha1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Efna4-Epha1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Epha1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.96731543813411</v>
+        <v>0.6731353333333333</v>
       </c>
       <c r="H2">
-        <v>0.96731543813411</v>
+        <v>2.019406</v>
       </c>
       <c r="I2">
-        <v>0.7310641900510744</v>
+        <v>0.3272865828458516</v>
       </c>
       <c r="J2">
-        <v>0.7310641900510744</v>
+        <v>0.3272865828458516</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.62319748292142</v>
+        <v>5.889554666666666</v>
       </c>
       <c r="N2">
-        <v>4.62319748292142</v>
+        <v>17.668664</v>
       </c>
       <c r="O2">
-        <v>0.2713367361156139</v>
+        <v>0.295601531529132</v>
       </c>
       <c r="P2">
-        <v>0.2713367361156139</v>
+        <v>0.295601531529132</v>
       </c>
       <c r="Q2">
-        <v>4.472090298772648</v>
+        <v>3.964467343731555</v>
       </c>
       <c r="R2">
-        <v>4.472090298772648</v>
+        <v>35.680206093584</v>
       </c>
       <c r="S2">
-        <v>0.1983645712194634</v>
+        <v>0.09674641513816987</v>
       </c>
       <c r="T2">
-        <v>0.1983645712194634</v>
+        <v>0.09674641513816989</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.96731543813411</v>
+        <v>0.6731353333333333</v>
       </c>
       <c r="H3">
-        <v>0.96731543813411</v>
+        <v>2.019406</v>
       </c>
       <c r="I3">
-        <v>0.7310641900510744</v>
+        <v>0.3272865828458516</v>
       </c>
       <c r="J3">
-        <v>0.7310641900510744</v>
+        <v>0.3272865828458516</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.4555621896926</v>
+        <v>5.851268999999999</v>
       </c>
       <c r="N3">
-        <v>5.4555621896926</v>
+        <v>17.553807</v>
       </c>
       <c r="O3">
-        <v>0.320188450459948</v>
+        <v>0.2936799428279805</v>
       </c>
       <c r="P3">
-        <v>0.320188450459948</v>
+        <v>0.2936799428279805</v>
       </c>
       <c r="Q3">
-        <v>5.277249529790382</v>
+        <v>3.938695908738</v>
       </c>
       <c r="R3">
-        <v>5.277249529790382</v>
+        <v>35.448263178642</v>
       </c>
       <c r="S3">
-        <v>0.2340783101992104</v>
+        <v>0.0961175049385348</v>
       </c>
       <c r="T3">
-        <v>0.2340783101992104</v>
+        <v>0.09611750493853481</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.96731543813411</v>
+        <v>0.6731353333333333</v>
       </c>
       <c r="H4">
-        <v>0.96731543813411</v>
+        <v>2.019406</v>
       </c>
       <c r="I4">
-        <v>0.7310641900510744</v>
+        <v>0.3272865828458516</v>
       </c>
       <c r="J4">
-        <v>0.7310641900510744</v>
+        <v>0.3272865828458516</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.73217115698113</v>
+        <v>2.039576333333334</v>
       </c>
       <c r="N4">
-        <v>1.73217115698113</v>
+        <v>6.118729000000001</v>
       </c>
       <c r="O4">
-        <v>0.1016616032226835</v>
+        <v>0.1023679924759288</v>
       </c>
       <c r="P4">
-        <v>0.1016616032226835</v>
+        <v>0.1023679924759288</v>
       </c>
       <c r="Q4">
-        <v>1.67555590163847</v>
+        <v>1.372910894997111</v>
       </c>
       <c r="R4">
-        <v>1.67555590163847</v>
+        <v>12.356198054974</v>
       </c>
       <c r="S4">
-        <v>0.07432115761928479</v>
+        <v>0.0335036704502366</v>
       </c>
       <c r="T4">
-        <v>0.07432115761928479</v>
+        <v>0.0335036704502366</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.96731543813411</v>
+        <v>0.6731353333333333</v>
       </c>
       <c r="H5">
-        <v>0.96731543813411</v>
+        <v>2.019406</v>
       </c>
       <c r="I5">
-        <v>0.7310641900510744</v>
+        <v>0.3272865828458516</v>
       </c>
       <c r="J5">
-        <v>0.7310641900510744</v>
+        <v>0.3272865828458516</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.22766685203806</v>
+        <v>6.143565333333334</v>
       </c>
       <c r="N5">
-        <v>5.22766685203806</v>
+        <v>18.430696</v>
       </c>
       <c r="O5">
-        <v>0.3068132102017547</v>
+        <v>0.3083505331669586</v>
       </c>
       <c r="P5">
-        <v>0.3068132102017547</v>
+        <v>0.3083505331669587</v>
       </c>
       <c r="Q5">
-        <v>5.056802851398359</v>
+        <v>4.135450898508445</v>
       </c>
       <c r="R5">
-        <v>5.056802851398359</v>
+        <v>37.21905808657601</v>
       </c>
       <c r="S5">
-        <v>0.2243001510131158</v>
+        <v>0.1009189923189103</v>
       </c>
       <c r="T5">
-        <v>0.2243001510131158</v>
+        <v>0.1009189923189103</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.355845306569485</v>
+        <v>0.9964423333333334</v>
       </c>
       <c r="H6">
-        <v>0.355845306569485</v>
+        <v>2.989327</v>
       </c>
       <c r="I6">
-        <v>0.2689358099489257</v>
+        <v>0.4844823769162027</v>
       </c>
       <c r="J6">
-        <v>0.2689358099489257</v>
+        <v>0.4844823769162026</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.62319748292142</v>
+        <v>5.889554666666666</v>
       </c>
       <c r="N6">
-        <v>4.62319748292142</v>
+        <v>17.668664</v>
       </c>
       <c r="O6">
-        <v>0.2713367361156139</v>
+        <v>0.295601531529132</v>
       </c>
       <c r="P6">
-        <v>0.2713367361156139</v>
+        <v>0.295601531529132</v>
       </c>
       <c r="Q6">
-        <v>1.645143125641444</v>
+        <v>5.868601594347556</v>
       </c>
       <c r="R6">
-        <v>1.645143125641444</v>
+        <v>52.81741434912801</v>
       </c>
       <c r="S6">
-        <v>0.07297216489615053</v>
+        <v>0.1432137326153037</v>
       </c>
       <c r="T6">
-        <v>0.07297216489615053</v>
+        <v>0.1432137326153037</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.355845306569485</v>
+        <v>0.9964423333333334</v>
       </c>
       <c r="H7">
-        <v>0.355845306569485</v>
+        <v>2.989327</v>
       </c>
       <c r="I7">
-        <v>0.2689358099489257</v>
+        <v>0.4844823769162027</v>
       </c>
       <c r="J7">
-        <v>0.2689358099489257</v>
+        <v>0.4844823769162026</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.4555621896926</v>
+        <v>5.851268999999999</v>
       </c>
       <c r="N7">
-        <v>5.4555621896926</v>
+        <v>17.553807</v>
       </c>
       <c r="O7">
-        <v>0.320188450459948</v>
+        <v>0.2936799428279805</v>
       </c>
       <c r="P7">
-        <v>0.320188450459948</v>
+        <v>0.2936799428279805</v>
       </c>
       <c r="Q7">
-        <v>1.941336199900054</v>
+        <v>5.830452135321</v>
       </c>
       <c r="R7">
-        <v>1.941336199900054</v>
+        <v>52.474069217889</v>
       </c>
       <c r="S7">
-        <v>0.08611014026073757</v>
+        <v>0.1422827567539145</v>
       </c>
       <c r="T7">
-        <v>0.08611014026073757</v>
+        <v>0.1422827567539145</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.355845306569485</v>
+        <v>0.9964423333333334</v>
       </c>
       <c r="H8">
-        <v>0.355845306569485</v>
+        <v>2.989327</v>
       </c>
       <c r="I8">
-        <v>0.2689358099489257</v>
+        <v>0.4844823769162027</v>
       </c>
       <c r="J8">
-        <v>0.2689358099489257</v>
+        <v>0.4844823769162026</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.73217115698113</v>
+        <v>2.039576333333334</v>
       </c>
       <c r="N8">
-        <v>1.73217115698113</v>
+        <v>6.118729000000001</v>
       </c>
       <c r="O8">
-        <v>0.1016616032226835</v>
+        <v>0.1023679924759288</v>
       </c>
       <c r="P8">
-        <v>0.1016616032226835</v>
+        <v>0.1023679924759288</v>
       </c>
       <c r="Q8">
-        <v>0.6163849763867697</v>
+        <v>2.032320200598112</v>
       </c>
       <c r="R8">
-        <v>0.6163849763867697</v>
+        <v>18.29088180538301</v>
       </c>
       <c r="S8">
-        <v>0.0273404456033987</v>
+        <v>0.04959548831487795</v>
       </c>
       <c r="T8">
-        <v>0.0273404456033987</v>
+        <v>0.04959548831487795</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.9964423333333334</v>
+      </c>
+      <c r="H9">
+        <v>2.989327</v>
+      </c>
+      <c r="I9">
+        <v>0.4844823769162027</v>
+      </c>
+      <c r="J9">
+        <v>0.4844823769162026</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>6.143565333333334</v>
+      </c>
+      <c r="N9">
+        <v>18.430696</v>
+      </c>
+      <c r="O9">
+        <v>0.3083505331669586</v>
+      </c>
+      <c r="P9">
+        <v>0.3083505331669587</v>
+      </c>
+      <c r="Q9">
+        <v>6.121708575732446</v>
+      </c>
+      <c r="R9">
+        <v>55.09537718159201</v>
+      </c>
+      <c r="S9">
+        <v>0.1493903992321065</v>
+      </c>
+      <c r="T9">
+        <v>0.1493903992321065</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.3871376666666667</v>
+      </c>
+      <c r="H10">
+        <v>1.161413</v>
+      </c>
+      <c r="I10">
+        <v>0.1882310402379457</v>
+      </c>
+      <c r="J10">
+        <v>0.1882310402379457</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.889554666666666</v>
+      </c>
+      <c r="N10">
+        <v>17.668664</v>
+      </c>
+      <c r="O10">
+        <v>0.295601531529132</v>
+      </c>
+      <c r="P10">
+        <v>0.295601531529132</v>
+      </c>
+      <c r="Q10">
+        <v>2.280068451359111</v>
+      </c>
+      <c r="R10">
+        <v>20.520616062232</v>
+      </c>
+      <c r="S10">
+        <v>0.05564138377565843</v>
+      </c>
+      <c r="T10">
+        <v>0.05564138377565844</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.355845306569485</v>
-      </c>
-      <c r="H9">
-        <v>0.355845306569485</v>
-      </c>
-      <c r="I9">
-        <v>0.2689358099489257</v>
-      </c>
-      <c r="J9">
-        <v>0.2689358099489257</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>5.22766685203806</v>
-      </c>
-      <c r="N9">
-        <v>5.22766685203806</v>
-      </c>
-      <c r="O9">
-        <v>0.3068132102017547</v>
-      </c>
-      <c r="P9">
-        <v>0.3068132102017547</v>
-      </c>
-      <c r="Q9">
-        <v>1.860240713606618</v>
-      </c>
-      <c r="R9">
-        <v>1.860240713606618</v>
-      </c>
-      <c r="S9">
-        <v>0.08251305918863888</v>
-      </c>
-      <c r="T9">
-        <v>0.08251305918863888</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.3871376666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.161413</v>
+      </c>
+      <c r="I11">
+        <v>0.1882310402379457</v>
+      </c>
+      <c r="J11">
+        <v>0.1882310402379457</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5.851268999999999</v>
+      </c>
+      <c r="N11">
+        <v>17.553807</v>
+      </c>
+      <c r="O11">
+        <v>0.2936799428279805</v>
+      </c>
+      <c r="P11">
+        <v>0.2936799428279805</v>
+      </c>
+      <c r="Q11">
+        <v>2.265246627699</v>
+      </c>
+      <c r="R11">
+        <v>20.387219649291</v>
+      </c>
+      <c r="S11">
+        <v>0.0552796811355312</v>
+      </c>
+      <c r="T11">
+        <v>0.05527968113553121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.3871376666666667</v>
+      </c>
+      <c r="H12">
+        <v>1.161413</v>
+      </c>
+      <c r="I12">
+        <v>0.1882310402379457</v>
+      </c>
+      <c r="J12">
+        <v>0.1882310402379457</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.039576333333334</v>
+      </c>
+      <c r="N12">
+        <v>6.118729000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.1023679924759288</v>
+      </c>
+      <c r="P12">
+        <v>0.1023679924759288</v>
+      </c>
+      <c r="Q12">
+        <v>0.7895968226752224</v>
+      </c>
+      <c r="R12">
+        <v>7.106371404077001</v>
+      </c>
+      <c r="S12">
+        <v>0.01926883371081429</v>
+      </c>
+      <c r="T12">
+        <v>0.01926883371081429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.3871376666666667</v>
+      </c>
+      <c r="H13">
+        <v>1.161413</v>
+      </c>
+      <c r="I13">
+        <v>0.1882310402379457</v>
+      </c>
+      <c r="J13">
+        <v>0.1882310402379457</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.143565333333334</v>
+      </c>
+      <c r="N13">
+        <v>18.430696</v>
+      </c>
+      <c r="O13">
+        <v>0.3083505331669586</v>
+      </c>
+      <c r="P13">
+        <v>0.3083505331669587</v>
+      </c>
+      <c r="Q13">
+        <v>2.378405548160889</v>
+      </c>
+      <c r="R13">
+        <v>21.405649933448</v>
+      </c>
+      <c r="S13">
+        <v>0.0580411416159418</v>
+      </c>
+      <c r="T13">
+        <v>0.05804114161594182</v>
       </c>
     </row>
   </sheetData>
